--- a/Changes.xlsx
+++ b/Changes.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="changes" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="40">
   <si>
     <t>Changes</t>
   </si>
@@ -130,13 +130,22 @@
   </si>
   <si>
     <t xml:space="preserve">Status </t>
+  </si>
+  <si>
+    <t>Sami</t>
+  </si>
+  <si>
+    <t>Faisal</t>
+  </si>
+  <si>
+    <t>Pending</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,13 +153,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -162,13 +203,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Accent1" xfId="2" builtinId="29"/>
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -450,23 +497,24 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>36</v>
       </c>
     </row>
@@ -474,173 +522,378 @@
       <c r="A2" t="s">
         <v>35</v>
       </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Changes.xlsx
+++ b/Changes.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="changes" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">changes!$A$1:$C$35</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="41">
   <si>
     <t>Changes</t>
   </si>
@@ -139,13 +142,16 @@
   </si>
   <si>
     <t>Pending</t>
+  </si>
+  <si>
+    <t>Completed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,8 +181,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -193,6 +206,11 @@
         <fgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -203,19 +221,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Accent1" xfId="2" builtinId="29"/>
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -494,10 +515,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,7 +551,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -551,7 +573,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -573,7 +595,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -595,7 +617,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -613,11 +635,11 @@
       <c r="B10" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -639,7 +661,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -661,7 +683,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -683,7 +705,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -705,7 +727,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -727,7 +749,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -749,7 +771,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -771,7 +793,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -793,7 +815,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -815,7 +837,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -837,7 +859,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -859,7 +881,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -877,11 +899,11 @@
       <c r="B34" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -893,6 +915,18 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C35">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Faisal"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C35">
+      <formula1>"Pending, Development, Completed"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Changes.xlsx
+++ b/Changes.xlsx
@@ -2,13 +2,16 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="changes" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">changes!$B$1:$B$35</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -144,7 +147,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -497,7 +500,7 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,6 +896,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B35"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Changes.xlsx
+++ b/Changes.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="41">
   <si>
     <t>Changes</t>
   </si>
@@ -142,13 +142,16 @@
   </si>
   <si>
     <t>Pending</t>
+  </si>
+  <si>
+    <t>Completed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,8 +181,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,6 +206,11 @@
         <fgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -206,19 +221,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Accent1" xfId="2" builtinId="29"/>
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -497,10 +515,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,7 +551,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -554,7 +573,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -576,7 +595,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -598,7 +617,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -616,11 +635,11 @@
       <c r="B10" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -642,7 +661,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -664,7 +683,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -686,7 +705,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -708,7 +727,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -730,7 +749,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -752,7 +771,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -774,7 +793,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -796,7 +815,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -818,7 +837,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -840,7 +859,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -862,7 +881,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -880,11 +899,11 @@
       <c r="B34" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -896,7 +915,18 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B35"/>
+  <autoFilter ref="B1:B35">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Faisal"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C35">
+      <formula1>"Pending, Development, Completed"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Changes.xlsx
+++ b/Changes.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -150,7 +150,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -189,7 +189,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,6 +211,12 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -227,11 +233,12 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent1" xfId="2" builtinId="29"/>
@@ -519,7 +526,7 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,7 +547,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -551,18 +558,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -573,18 +580,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -595,18 +602,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -617,7 +624,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -628,7 +635,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -639,7 +646,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -650,7 +657,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -661,7 +668,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -672,7 +679,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -683,7 +690,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -694,7 +701,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -705,7 +712,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -716,7 +723,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -727,7 +734,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -738,7 +745,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -749,7 +756,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -760,7 +767,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -771,7 +778,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -782,7 +789,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -793,7 +800,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -804,7 +811,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -815,7 +822,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -826,7 +833,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -837,7 +844,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -848,7 +855,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -859,7 +866,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -870,7 +877,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -881,7 +888,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -892,7 +899,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -903,7 +910,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -918,7 +925,7 @@
   <autoFilter ref="B1:B35">
     <filterColumn colId="0">
       <filters>
-        <filter val="Faisal"/>
+        <filter val="Sami"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Changes.xlsx
+++ b/Changes.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -10,7 +10,7 @@
     <sheet name="changes" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">changes!$B$1:$B$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">changes!$A$1:$C$35</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -150,7 +150,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -189,7 +189,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,12 +211,6 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -233,12 +227,11 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent1" xfId="2" builtinId="29"/>
@@ -526,7 +519,7 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,7 +540,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -558,18 +551,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -580,18 +573,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -602,18 +595,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -624,7 +617,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -635,7 +628,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -646,7 +639,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -657,7 +650,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -668,7 +661,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -679,7 +672,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -690,7 +683,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -701,18 +694,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C16" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -723,18 +716,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -745,18 +738,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -767,18 +760,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -789,18 +782,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -811,18 +804,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -833,7 +826,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -844,7 +837,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -855,7 +848,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -866,7 +859,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -877,7 +870,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -888,7 +881,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -899,7 +892,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -910,7 +903,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -922,10 +915,10 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B35">
-    <filterColumn colId="0">
+  <autoFilter ref="A1:C35">
+    <filterColumn colId="1">
       <filters>
-        <filter val="Sami"/>
+        <filter val="Faisal"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Changes.xlsx
+++ b/Changes.xlsx
@@ -519,7 +519,7 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Changes.xlsx
+++ b/Changes.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -10,7 +10,7 @@
     <sheet name="changes" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">changes!$B$1:$B$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">changes!$A$1:$C$35</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -150,7 +150,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -189,7 +189,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,12 +211,6 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -233,12 +227,11 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent1" xfId="2" builtinId="29"/>
@@ -522,11 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,7 +539,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -565,11 +557,11 @@
       <c r="B3" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -587,11 +579,11 @@
       <c r="B5" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -609,11 +601,11 @@
       <c r="B7" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -635,7 +627,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -657,7 +649,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -679,7 +671,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -701,15 +693,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>39</v>
+      <c r="C16" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -723,15 +715,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>39</v>
+      <c r="C18" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -745,15 +737,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>39</v>
+      <c r="C20" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -767,15 +759,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>39</v>
+      <c r="C22" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -789,15 +781,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>39</v>
+      <c r="C24" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -811,15 +803,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>39</v>
+      <c r="C26" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -833,7 +825,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -855,7 +847,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -877,7 +869,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -899,7 +891,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -922,13 +914,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B35">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Sami"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C35">
       <formula1>"Pending, Development, Completed"</formula1>

--- a/Changes.xlsx
+++ b/Changes.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -150,7 +150,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -517,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,8 +909,8 @@
       <c r="B35" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>39</v>
+      <c r="C35" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Changes.xlsx
+++ b/Changes.xlsx
@@ -517,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,8 +645,8 @@
       <c r="B11" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>39</v>
+      <c r="C11" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -678,7 +678,7 @@
       <c r="B14" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -821,8 +821,8 @@
       <c r="B27" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>39</v>
+      <c r="C27" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -832,8 +832,8 @@
       <c r="B28" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>39</v>
+      <c r="C28" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -854,8 +854,8 @@
       <c r="B30" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>39</v>
+      <c r="C30" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -865,8 +865,8 @@
       <c r="B31" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>39</v>
+      <c r="C31" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -887,8 +887,8 @@
       <c r="B33" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>39</v>
+      <c r="C33" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">

--- a/Changes.xlsx
+++ b/Changes.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="43">
   <si>
     <t>Changes</t>
   </si>
@@ -145,13 +145,19 @@
   </si>
   <si>
     <t>Completed</t>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
+  <si>
+    <t>Whats this</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,8 +194,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,8 +224,13 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -220,23 +238,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Accent1" xfId="2" builtinId="29"/>
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Good" xfId="3" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -515,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,7 +565,7 @@
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -539,377 +576,380 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="B17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="B18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="B19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="B20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="B21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="3" t="s">
+      <c r="B22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="B23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="3" t="s">
+      <c r="B24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="B25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="3" t="s">
+      <c r="B26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="3" t="s">
+      <c r="B27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="3" t="s">
+      <c r="B28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>39</v>
+      <c r="B29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="3" t="s">
+      <c r="B30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="3" t="s">
+      <c r="B31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>39</v>
+      <c r="B32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="3" t="s">
+      <c r="B33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" s="3" t="s">
+      <c r="B34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" s="3" t="s">
+      <c r="B35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>40</v>
       </c>
     </row>

--- a/Changes.xlsx
+++ b/Changes.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="43">
   <si>
     <t>Changes</t>
   </si>
@@ -145,6 +145,12 @@
   </si>
   <si>
     <t>Completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remarks </t>
+  </si>
+  <si>
+    <t>not feasible</t>
   </si>
 </sst>
 </file>
@@ -515,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,9 +532,10 @@
     <col min="1" max="1" width="46.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -538,19 +545,22 @@
       <c r="C1" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
       <c r="B2" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -561,18 +571,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -583,7 +593,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -594,7 +604,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -605,7 +615,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -616,7 +626,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -626,8 +636,11 @@
       <c r="C9" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -638,7 +651,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -649,18 +662,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -671,18 +684,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -693,7 +706,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -914,6 +927,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C35"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C35">
       <formula1>"Pending, Development, Completed"</formula1>

--- a/Changes.xlsx
+++ b/Changes.xlsx
@@ -536,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,8 +740,8 @@
       <c r="B17" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>39</v>
+      <c r="C17" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -762,8 +762,8 @@
       <c r="B19" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>39</v>
+      <c r="C19" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -784,8 +784,8 @@
       <c r="B21" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>39</v>
+      <c r="C21" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -872,8 +872,8 @@
       <c r="B29" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>39</v>
+      <c r="C29" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -905,7 +905,7 @@
       <c r="B32" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="3" t="s">
         <v>39</v>
       </c>
     </row>

--- a/Changes.xlsx
+++ b/Changes.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="44">
   <si>
     <t>Changes</t>
   </si>
@@ -139,9 +139,6 @@
   </si>
   <si>
     <t>Faisal</t>
-  </si>
-  <si>
-    <t>Pending</t>
   </si>
   <si>
     <t>Completed</t>
@@ -245,10 +242,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
@@ -536,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,7 +555,7 @@
         <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -569,8 +565,8 @@
       <c r="B2" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>40</v>
+      <c r="C2" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -580,8 +576,8 @@
       <c r="B3" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>40</v>
+      <c r="C3" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -591,8 +587,8 @@
       <c r="B4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>40</v>
+      <c r="C4" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -602,8 +598,8 @@
       <c r="B5" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>40</v>
+      <c r="C5" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -624,8 +620,8 @@
       <c r="B7" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>40</v>
+      <c r="C7" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -635,11 +631,11 @@
       <c r="B8" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
         <v>43</v>
-      </c>
-      <c r="D8" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -649,11 +645,11 @@
       <c r="B9" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>43</v>
+      <c r="C9" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -663,8 +659,8 @@
       <c r="B10" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>40</v>
+      <c r="C10" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -674,8 +670,8 @@
       <c r="B11" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>40</v>
+      <c r="C11" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -685,8 +681,8 @@
       <c r="B12" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>40</v>
+      <c r="C12" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -696,8 +692,8 @@
       <c r="B13" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>40</v>
+      <c r="C13" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -707,8 +703,8 @@
       <c r="B14" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>40</v>
+      <c r="C14" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -718,8 +714,8 @@
       <c r="B15" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>40</v>
+      <c r="C15" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -729,8 +725,8 @@
       <c r="B16" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>40</v>
+      <c r="C16" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -740,8 +736,8 @@
       <c r="B17" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>40</v>
+      <c r="C17" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -751,8 +747,8 @@
       <c r="B18" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>40</v>
+      <c r="C18" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -762,8 +758,8 @@
       <c r="B19" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>40</v>
+      <c r="C19" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -773,8 +769,8 @@
       <c r="B20" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>40</v>
+      <c r="C20" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -784,8 +780,8 @@
       <c r="B21" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>40</v>
+      <c r="C21" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -795,8 +791,8 @@
       <c r="B22" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>40</v>
+      <c r="C22" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -817,8 +813,8 @@
       <c r="B24" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>40</v>
+      <c r="C24" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -839,8 +835,8 @@
       <c r="B26" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>40</v>
+      <c r="C26" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -850,8 +846,8 @@
       <c r="B27" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>40</v>
+      <c r="C27" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -861,8 +857,8 @@
       <c r="B28" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>40</v>
+      <c r="C28" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -872,8 +868,8 @@
       <c r="B29" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>40</v>
+      <c r="C29" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -883,8 +879,8 @@
       <c r="B30" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>40</v>
+      <c r="C30" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -894,8 +890,8 @@
       <c r="B31" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>40</v>
+      <c r="C31" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -905,7 +901,7 @@
       <c r="B32" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -916,8 +912,8 @@
       <c r="B33" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>40</v>
+      <c r="C33" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -927,8 +923,8 @@
       <c r="B34" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>40</v>
+      <c r="C34" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -938,8 +934,8 @@
       <c r="B35" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>40</v>
+      <c r="C35" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Changes.xlsx
+++ b/Changes.xlsx
@@ -533,13 +533,13 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
